--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,27 +43,24 @@
     <t>worst</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
@@ -73,18 +70,15 @@
     <t>shit</t>
   </si>
   <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
   </si>
   <si>
     <t>social</t>
-  </si>
-  <si>
-    <t>media</t>
   </si>
   <si>
     <t>positive</t>
@@ -464,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,10 +463,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,16 +545,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L3">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M3">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -575,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -583,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -601,19 +592,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L4">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -625,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -633,13 +624,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.875</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -651,19 +642,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -675,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -683,13 +674,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9134615384615384</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -701,19 +692,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.7017543859649122</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -725,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -733,13 +724,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.575</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -751,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.6896551724137931</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -775,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -783,13 +774,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.5579710144927537</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -801,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K8">
         <v>0.5666666666666667</v>
@@ -833,37 +824,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.625</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>15</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K9">
-        <v>0.5600000000000001</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -875,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -883,13 +874,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4927536231884058</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C10">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -901,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.08105646630236794</v>
+        <v>0.075591985428051</v>
       </c>
       <c r="L10">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M10">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -925,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1009</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -933,13 +924,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4102564102564102</v>
+        <v>0.4</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -951,31 +942,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>23</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11">
-        <v>0.02409638554216868</v>
-      </c>
-      <c r="L11">
-        <v>16</v>
-      </c>
-      <c r="M11">
-        <v>16</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>648</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -983,13 +950,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1001,59 +968,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.3829787234042553</v>
-      </c>
-      <c r="C13">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
         <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
